--- a/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025120756331857</v>
+        <v>1.012080231800318</v>
       </c>
       <c r="D2">
-        <v>1.041917612334627</v>
+        <v>1.032057418382636</v>
       </c>
       <c r="E2">
-        <v>1.037648809601877</v>
+        <v>1.026865045426396</v>
       </c>
       <c r="F2">
-        <v>1.048195349627192</v>
+        <v>1.037829112804191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053178038221229</v>
+        <v>1.049178051239739</v>
       </c>
       <c r="J2">
-        <v>1.04657521935752</v>
+        <v>1.033905532428581</v>
       </c>
       <c r="K2">
-        <v>1.052822296346701</v>
+        <v>1.043087502462168</v>
       </c>
       <c r="L2">
-        <v>1.048607418142508</v>
+        <v>1.037962377150338</v>
       </c>
       <c r="M2">
-        <v>1.05902172543301</v>
+        <v>1.048785432509161</v>
       </c>
       <c r="N2">
-        <v>1.048061476212863</v>
+        <v>1.035373796875263</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031620602338698</v>
+        <v>1.016596598570836</v>
       </c>
       <c r="D3">
-        <v>1.046927908728398</v>
+        <v>1.035437806206753</v>
       </c>
       <c r="E3">
-        <v>1.043084599020518</v>
+        <v>1.030546742020366</v>
       </c>
       <c r="F3">
-        <v>1.053710646816815</v>
+        <v>1.041646858732649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054990412051081</v>
+        <v>1.050235073851821</v>
       </c>
       <c r="J3">
-        <v>1.051284864257262</v>
+        <v>1.036644826150993</v>
       </c>
       <c r="K3">
-        <v>1.056993585134981</v>
+        <v>1.045636476172842</v>
       </c>
       <c r="L3">
-        <v>1.053194357490592</v>
+        <v>1.040803139009244</v>
       </c>
       <c r="M3">
-        <v>1.063699492889781</v>
+        <v>1.051773211107862</v>
       </c>
       <c r="N3">
-        <v>1.052777809348567</v>
+        <v>1.038116980708952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035720118763581</v>
+        <v>1.019462579907323</v>
       </c>
       <c r="D4">
-        <v>1.05009004487258</v>
+        <v>1.037585096752832</v>
       </c>
       <c r="E4">
-        <v>1.046518517315653</v>
+        <v>1.032888647065007</v>
       </c>
       <c r="F4">
-        <v>1.057194199080947</v>
+        <v>1.044074230752866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056122138517636</v>
+        <v>1.05089579094783</v>
       </c>
       <c r="J4">
-        <v>1.054252225365154</v>
+        <v>1.03838120176137</v>
       </c>
       <c r="K4">
-        <v>1.059619298374848</v>
+        <v>1.047250116183675</v>
       </c>
       <c r="L4">
-        <v>1.056086140976445</v>
+        <v>1.042605700192053</v>
       </c>
       <c r="M4">
-        <v>1.06664807270778</v>
+        <v>1.053668299821689</v>
       </c>
       <c r="N4">
-        <v>1.055749384449593</v>
+        <v>1.039855822171859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.037419323035983</v>
+        <v>1.020654403424972</v>
       </c>
       <c r="D5">
-        <v>1.051401130408009</v>
+        <v>1.038478517507036</v>
       </c>
       <c r="E5">
-        <v>1.047943086957081</v>
+        <v>1.033863827366886</v>
       </c>
       <c r="F5">
-        <v>1.058639210259515</v>
+        <v>1.045084739442795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056588447966323</v>
+        <v>1.051168101028729</v>
       </c>
       <c r="J5">
-        <v>1.055481374264891</v>
+        <v>1.039102781722149</v>
       </c>
       <c r="K5">
-        <v>1.060706320245164</v>
+        <v>1.047920174241503</v>
       </c>
       <c r="L5">
-        <v>1.057284391727691</v>
+        <v>1.043355230319861</v>
       </c>
       <c r="M5">
-        <v>1.067869738514795</v>
+        <v>1.054456116698645</v>
       </c>
       <c r="N5">
-        <v>1.056980278881753</v>
+        <v>1.040578426858949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037703239833945</v>
+        <v>1.02085376469642</v>
       </c>
       <c r="D6">
-        <v>1.051620219142272</v>
+        <v>1.038627989518402</v>
       </c>
       <c r="E6">
-        <v>1.048181186906639</v>
+        <v>1.034027024650926</v>
       </c>
       <c r="F6">
-        <v>1.058880717800058</v>
+        <v>1.045253833571232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056666197804715</v>
+        <v>1.051213506283163</v>
       </c>
       <c r="J6">
-        <v>1.055686702416283</v>
+        <v>1.03922345330199</v>
       </c>
       <c r="K6">
-        <v>1.060887869834403</v>
+        <v>1.048032198883581</v>
       </c>
       <c r="L6">
-        <v>1.057484582125959</v>
+        <v>1.043480602208238</v>
       </c>
       <c r="M6">
-        <v>1.068073833608459</v>
+        <v>1.054587881537716</v>
       </c>
       <c r="N6">
-        <v>1.057185898622672</v>
+        <v>1.040699269806275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035742917278772</v>
+        <v>1.019478555724241</v>
       </c>
       <c r="D7">
-        <v>1.050107634402663</v>
+        <v>1.037597070856711</v>
       </c>
       <c r="E7">
-        <v>1.046537626169121</v>
+        <v>1.032901713829449</v>
       </c>
       <c r="F7">
-        <v>1.057213582731405</v>
+        <v>1.044087771926054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056128406129044</v>
+        <v>1.050899450861993</v>
       </c>
       <c r="J7">
-        <v>1.054268720260297</v>
+        <v>1.038390876191623</v>
       </c>
       <c r="K7">
-        <v>1.059633888392145</v>
+        <v>1.047259101906116</v>
       </c>
       <c r="L7">
-        <v>1.056102219622905</v>
+        <v>1.042615747600674</v>
       </c>
       <c r="M7">
-        <v>1.066664466029251</v>
+        <v>1.053678861209302</v>
       </c>
       <c r="N7">
-        <v>1.055765902769379</v>
+        <v>1.039865510340914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027340185892965</v>
+        <v>1.013618529151193</v>
       </c>
       <c r="D8">
-        <v>1.043627926591352</v>
+        <v>1.033208305166844</v>
       </c>
       <c r="E8">
-        <v>1.03950370073799</v>
+        <v>1.028117851128326</v>
       </c>
       <c r="F8">
-        <v>1.050077491988709</v>
+        <v>1.03912843596702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053799244648331</v>
+        <v>1.049540158460359</v>
       </c>
       <c r="J8">
-        <v>1.048183977298683</v>
+        <v>1.03483892951626</v>
       </c>
       <c r="K8">
-        <v>1.054247661525968</v>
+        <v>1.043956480041746</v>
       </c>
       <c r="L8">
-        <v>1.050173890873586</v>
+        <v>1.038929955772868</v>
       </c>
       <c r="M8">
-        <v>1.060619309705131</v>
+        <v>1.049803241771814</v>
       </c>
       <c r="N8">
-        <v>1.049672518774829</v>
+        <v>1.036308519493858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011659602457917</v>
+        <v>1.002838094370978</v>
       </c>
       <c r="D9">
-        <v>1.031557184938186</v>
+        <v>1.025154452764311</v>
       </c>
       <c r="E9">
-        <v>1.026425606985937</v>
+        <v>1.019363767979488</v>
       </c>
       <c r="F9">
-        <v>1.036805035460329</v>
+        <v>1.03004490863787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049364010052324</v>
+        <v>1.046961637884546</v>
       </c>
       <c r="J9">
-        <v>1.036807243470679</v>
+        <v>1.028291028741434</v>
       </c>
       <c r="K9">
-        <v>1.044158207112748</v>
+        <v>1.037852186171755</v>
       </c>
       <c r="L9">
-        <v>1.039104017684506</v>
+        <v>1.032150303748206</v>
       </c>
       <c r="M9">
-        <v>1.049327922451587</v>
+        <v>1.04266863519392</v>
       </c>
       <c r="N9">
-        <v>1.03827962867986</v>
+        <v>1.029751319948877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000526592793589</v>
+        <v>0.9953125901005873</v>
       </c>
       <c r="D10">
-        <v>1.02300830308402</v>
+        <v>1.019549786987407</v>
       </c>
       <c r="E10">
-        <v>1.017178888318606</v>
+        <v>1.013287630453249</v>
       </c>
       <c r="F10">
-        <v>1.027418431513682</v>
+        <v>1.023734671626747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04615867268488</v>
+        <v>1.045111635290065</v>
       </c>
       <c r="J10">
-        <v>1.028719333439416</v>
+        <v>1.02371342573906</v>
       </c>
       <c r="K10">
-        <v>1.036974200932994</v>
+        <v>1.033574812988683</v>
       </c>
       <c r="L10">
-        <v>1.031244748610654</v>
+        <v>1.027421046729324</v>
       </c>
       <c r="M10">
-        <v>1.041309676793998</v>
+        <v>1.037688216732228</v>
       </c>
       <c r="N10">
-        <v>1.030180232888657</v>
+        <v>1.025167216225181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9955214698969056</v>
+        <v>0.9919656759414025</v>
       </c>
       <c r="D11">
-        <v>1.019171648963402</v>
+        <v>1.017062238781062</v>
       </c>
       <c r="E11">
-        <v>1.013032410663882</v>
+        <v>1.010594358984995</v>
       </c>
       <c r="F11">
-        <v>1.023208772998273</v>
+        <v>1.020936394028619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044705205611823</v>
+        <v>1.044277620711817</v>
       </c>
       <c r="J11">
-        <v>1.025081755149859</v>
+        <v>1.021676554419281</v>
       </c>
       <c r="K11">
-        <v>1.033740851589598</v>
+        <v>1.031669403301382</v>
       </c>
       <c r="L11">
-        <v>1.027712669817774</v>
+        <v>1.025319209131081</v>
       </c>
       <c r="M11">
-        <v>1.037705888074608</v>
+        <v>1.035473994001882</v>
       </c>
       <c r="N11">
-        <v>1.026537488820693</v>
+        <v>1.023127452314495</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9936323977019799</v>
+        <v>0.9907084801542557</v>
       </c>
       <c r="D12">
-        <v>1.017724754453825</v>
+        <v>1.016128693289187</v>
       </c>
       <c r="E12">
-        <v>1.011469147160911</v>
+        <v>1.009584119681859</v>
       </c>
       <c r="F12">
-        <v>1.021621634135791</v>
+        <v>1.019886585185502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044154848557197</v>
+        <v>1.043962707965278</v>
       </c>
       <c r="J12">
-        <v>1.023708712294153</v>
+        <v>1.020911346658668</v>
       </c>
       <c r="K12">
-        <v>1.032520076263614</v>
+        <v>1.030953281825765</v>
       </c>
       <c r="L12">
-        <v>1.026379866408252</v>
+        <v>1.024529978077662</v>
       </c>
       <c r="M12">
-        <v>1.036345999148298</v>
+        <v>1.03464245590265</v>
       </c>
       <c r="N12">
-        <v>1.025162496086641</v>
+        <v>1.022361157871092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9940390037485121</v>
+        <v>0.9909787989091373</v>
       </c>
       <c r="D13">
-        <v>1.018036130397765</v>
+        <v>1.016329381944051</v>
       </c>
       <c r="E13">
-        <v>1.011805545232416</v>
+        <v>1.00980127276375</v>
       </c>
       <c r="F13">
-        <v>1.021963172233043</v>
+        <v>1.020112251976218</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044273386825237</v>
+        <v>1.044030492515071</v>
       </c>
       <c r="J13">
-        <v>1.024004251335348</v>
+        <v>1.021075883233305</v>
       </c>
       <c r="K13">
-        <v>1.032782854222346</v>
+        <v>1.031107277049695</v>
       </c>
       <c r="L13">
-        <v>1.026666725016032</v>
+        <v>1.024699662789855</v>
       </c>
       <c r="M13">
-        <v>1.036638688321887</v>
+        <v>1.034821241340319</v>
       </c>
       <c r="N13">
-        <v>1.025458454827174</v>
+        <v>1.022525928106537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9953659432731281</v>
+        <v>0.9918620458185652</v>
       </c>
       <c r="D14">
-        <v>1.019052502065713</v>
+        <v>1.016985269278385</v>
       </c>
       <c r="E14">
-        <v>1.012903671760546</v>
+        <v>1.010511055897229</v>
       </c>
       <c r="F14">
-        <v>1.023078068947719</v>
+        <v>1.020849831760764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044659930473456</v>
+        <v>1.044251695460447</v>
       </c>
       <c r="J14">
-        <v>1.024968714867782</v>
+        <v>1.021613480416274</v>
       </c>
       <c r="K14">
-        <v>1.033640353385418</v>
+        <v>1.031610381353535</v>
       </c>
       <c r="L14">
-        <v>1.027602933803713</v>
+        <v>1.025254147132772</v>
       </c>
       <c r="M14">
-        <v>1.03759392243568</v>
+        <v>1.035405446459</v>
       </c>
       <c r="N14">
-        <v>1.026424288008449</v>
+        <v>1.023064288739169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961794753991954</v>
+        <v>0.9924043650876829</v>
       </c>
       <c r="D15">
-        <v>1.019675786688341</v>
+        <v>1.017388102732178</v>
       </c>
       <c r="E15">
-        <v>1.013577153408561</v>
+        <v>1.010947058031278</v>
       </c>
       <c r="F15">
-        <v>1.023761828836244</v>
+        <v>1.021302884802091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044896684865958</v>
+        <v>1.044387301763526</v>
       </c>
       <c r="J15">
-        <v>1.025560004222034</v>
+        <v>1.021943556759605</v>
       </c>
       <c r="K15">
-        <v>1.034166025303003</v>
+        <v>1.03191924049013</v>
       </c>
       <c r="L15">
-        <v>1.028176956336792</v>
+        <v>1.025594642624694</v>
       </c>
       <c r="M15">
-        <v>1.038179607014038</v>
+        <v>1.035764178887082</v>
       </c>
       <c r="N15">
-        <v>1.027016417061406</v>
+        <v>1.023394833828768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000854694661358</v>
+        <v>0.9955327914573533</v>
       </c>
       <c r="D16">
-        <v>1.023259960222496</v>
+        <v>1.019713561661066</v>
       </c>
       <c r="E16">
-        <v>1.017450934804109</v>
+        <v>1.013465021580583</v>
       </c>
       <c r="F16">
-        <v>1.027694614857972</v>
+        <v>1.023918953405964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04625370154492</v>
+        <v>1.045166277417481</v>
       </c>
       <c r="J16">
-        <v>1.028957766277159</v>
+        <v>1.023847419417843</v>
       </c>
       <c r="K16">
-        <v>1.037186092626682</v>
+        <v>1.033700115787281</v>
       </c>
       <c r="L16">
-        <v>1.031476322977671</v>
+        <v>1.027559366999437</v>
       </c>
       <c r="M16">
-        <v>1.041545948317188</v>
+        <v>1.037833917733312</v>
       </c>
       <c r="N16">
-        <v>1.030419004328378</v>
+        <v>1.025301400190357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003736447239863</v>
+        <v>0.9974710221394631</v>
       </c>
       <c r="D17">
-        <v>1.025471068221111</v>
+        <v>1.021155709202285</v>
       </c>
       <c r="E17">
-        <v>1.019841564632078</v>
+        <v>1.015027471791267</v>
       </c>
       <c r="F17">
-        <v>1.030121547728648</v>
+        <v>1.025541955004394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047086952579883</v>
+        <v>1.045645968336909</v>
       </c>
       <c r="J17">
-        <v>1.031051792675823</v>
+        <v>1.025026733338893</v>
       </c>
       <c r="K17">
-        <v>1.039046765205304</v>
+        <v>1.034802698664998</v>
       </c>
       <c r="L17">
-        <v>1.033510418973769</v>
+        <v>1.02877704733352</v>
       </c>
       <c r="M17">
-        <v>1.043621274712512</v>
+        <v>1.039116487335432</v>
       </c>
       <c r="N17">
-        <v>1.032516004484717</v>
+        <v>1.026482388872444</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005399690299725</v>
+        <v>0.9985930897066716</v>
       </c>
       <c r="D18">
-        <v>1.026747861568691</v>
+        <v>1.021991064921365</v>
       </c>
       <c r="E18">
-        <v>1.021222341339368</v>
+        <v>1.015932849291231</v>
       </c>
       <c r="F18">
-        <v>1.031523248673251</v>
+        <v>1.02648230127153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047566696392795</v>
+        <v>1.045922596823847</v>
       </c>
       <c r="J18">
-        <v>1.032260244532143</v>
+        <v>1.025709353987845</v>
       </c>
       <c r="K18">
-        <v>1.040120329942458</v>
+        <v>1.035440701697735</v>
       </c>
       <c r="L18">
-        <v>1.034684535667902</v>
+        <v>1.029482113878141</v>
       </c>
       <c r="M18">
-        <v>1.044819164564436</v>
+        <v>1.039859053575876</v>
       </c>
       <c r="N18">
-        <v>1.033726172481283</v>
+        <v>1.027165978921015</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005963886146807</v>
+        <v>0.9989742706273785</v>
       </c>
       <c r="D19">
-        <v>1.027181069210576</v>
+        <v>1.022274924629136</v>
       </c>
       <c r="E19">
-        <v>1.021690884933978</v>
+        <v>1.016240560641114</v>
       </c>
       <c r="F19">
-        <v>1.031998884808062</v>
+        <v>1.026801877282123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047729229937145</v>
+        <v>1.046016387832161</v>
       </c>
       <c r="J19">
-        <v>1.032670141436458</v>
+        <v>1.025941230646896</v>
       </c>
       <c r="K19">
-        <v>1.040484436006524</v>
+        <v>1.03565738730377</v>
       </c>
       <c r="L19">
-        <v>1.035082828364201</v>
+        <v>1.029721655365828</v>
       </c>
       <c r="M19">
-        <v>1.045225517023697</v>
+        <v>1.040111322767594</v>
       </c>
       <c r="N19">
-        <v>1.034136651486219</v>
+        <v>1.027398184871518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003429101870819</v>
+        <v>0.9972639495238278</v>
       </c>
       <c r="D20">
-        <v>1.025235182928929</v>
+        <v>1.021001585978264</v>
       </c>
       <c r="E20">
-        <v>1.01958649465823</v>
+        <v>1.014860456912999</v>
       </c>
       <c r="F20">
-        <v>1.029862608820124</v>
+        <v>1.025368479852431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04699820627207</v>
+        <v>1.045594830837676</v>
       </c>
       <c r="J20">
-        <v>1.030828474374041</v>
+        <v>1.024900750281335</v>
       </c>
       <c r="K20">
-        <v>1.038848355619536</v>
+        <v>1.034684933563514</v>
       </c>
       <c r="L20">
-        <v>1.033293465857208</v>
+        <v>1.028646940931258</v>
       </c>
       <c r="M20">
-        <v>1.043399926619408</v>
+        <v>1.038979455157621</v>
       </c>
       <c r="N20">
-        <v>1.032292369045331</v>
+        <v>1.026356226904494</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9949760384757569</v>
+        <v>0.9916023443094221</v>
       </c>
       <c r="D21">
-        <v>1.018753820444051</v>
+        <v>1.016792394376738</v>
       </c>
       <c r="E21">
-        <v>1.012580952061957</v>
+        <v>1.010302318086143</v>
       </c>
       <c r="F21">
-        <v>1.022750422214002</v>
+        <v>1.020632924298315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044546397532473</v>
+        <v>1.044186699554265</v>
       </c>
       <c r="J21">
-        <v>1.024685321628399</v>
+        <v>1.021455412822548</v>
       </c>
       <c r="K21">
-        <v>1.033388398356041</v>
+        <v>1.031462463693672</v>
       </c>
       <c r="L21">
-        <v>1.027327831179524</v>
+        <v>1.025091103683299</v>
       </c>
       <c r="M21">
-        <v>1.037313229878569</v>
+        <v>1.035233666640795</v>
       </c>
       <c r="N21">
-        <v>1.02614049231816</v>
+        <v>1.022905996671329</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9894867116695805</v>
+        <v>0.9879612515564503</v>
       </c>
       <c r="D22">
-        <v>1.014551787514226</v>
+        <v>1.014090361597546</v>
       </c>
       <c r="E22">
-        <v>1.008041822693286</v>
+        <v>1.007379250661774</v>
       </c>
       <c r="F22">
-        <v>1.018141877445635</v>
+        <v>1.01759502548361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042943884118086</v>
+        <v>1.043271620086303</v>
       </c>
       <c r="J22">
-        <v>1.020695380793949</v>
+        <v>1.019239084704362</v>
       </c>
       <c r="K22">
-        <v>1.029840379432501</v>
+        <v>1.029387759885411</v>
       </c>
       <c r="L22">
-        <v>1.02345563531486</v>
+        <v>1.022805926983541</v>
       </c>
       <c r="M22">
-        <v>1.033362308381381</v>
+        <v>1.03282579829476</v>
       </c>
       <c r="N22">
-        <v>1.022144885310073</v>
+        <v>1.020686521112999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9924140635695259</v>
+        <v>0.9898994394108579</v>
       </c>
       <c r="D23">
-        <v>1.016791946696919</v>
+        <v>1.015528180383237</v>
       </c>
       <c r="E23">
-        <v>1.010461445841762</v>
+        <v>1.008934414352313</v>
       </c>
       <c r="F23">
-        <v>1.020598528432242</v>
+        <v>1.019211381176988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043799412985045</v>
+        <v>1.043759599699749</v>
       </c>
       <c r="J23">
-        <v>1.022823164330078</v>
+        <v>1.020418892118073</v>
       </c>
       <c r="K23">
-        <v>1.031732649871944</v>
+        <v>1.030492334729288</v>
       </c>
       <c r="L23">
-        <v>1.025520390927763</v>
+        <v>1.024022171846043</v>
       </c>
       <c r="M23">
-        <v>1.035469051561164</v>
+        <v>1.034107399344064</v>
       </c>
       <c r="N23">
-        <v>1.024275690542883</v>
+        <v>1.021868003988563</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003568032343936</v>
+        <v>0.9973575428456982</v>
       </c>
       <c r="D24">
-        <v>1.025341809117997</v>
+        <v>1.021071245596873</v>
       </c>
       <c r="E24">
-        <v>1.019701791820913</v>
+        <v>1.014935942171778</v>
       </c>
       <c r="F24">
-        <v>1.029979654961524</v>
+        <v>1.025446885310546</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047038326261046</v>
+        <v>1.045617947447195</v>
       </c>
       <c r="J24">
-        <v>1.030929422233664</v>
+        <v>1.024957692807262</v>
       </c>
       <c r="K24">
-        <v>1.03893804453352</v>
+        <v>1.034738162324085</v>
       </c>
       <c r="L24">
-        <v>1.033391535649524</v>
+        <v>1.028705746411099</v>
       </c>
       <c r="M24">
-        <v>1.04349998316356</v>
+        <v>1.039041391174994</v>
       </c>
       <c r="N24">
-        <v>1.032393460262493</v>
+        <v>1.026413250295339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01582588738269</v>
+        <v>1.005682213511506</v>
       </c>
       <c r="D25">
-        <v>1.034761232229132</v>
+        <v>1.027276517106953</v>
       </c>
       <c r="E25">
-        <v>1.029894266569876</v>
+        <v>1.02166752866785</v>
       </c>
       <c r="F25">
-        <v>1.040325707627709</v>
+        <v>1.032436322710684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05055237533238</v>
+        <v>1.04765073592097</v>
       </c>
       <c r="J25">
-        <v>1.039832138258186</v>
+        <v>1.030019850116105</v>
       </c>
       <c r="K25">
-        <v>1.046842868297499</v>
+        <v>1.039465658350852</v>
       </c>
       <c r="L25">
-        <v>1.042045583225001</v>
+        <v>1.033938544283962</v>
       </c>
       <c r="M25">
-        <v>1.052328685933708</v>
+        <v>1.044551140878034</v>
       </c>
       <c r="N25">
-        <v>1.041308819164926</v>
+        <v>1.031482596448198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012080231800318</v>
+        <v>1.005864308520041</v>
       </c>
       <c r="D2">
-        <v>1.032057418382636</v>
+        <v>1.026551754611015</v>
       </c>
       <c r="E2">
-        <v>1.026865045426396</v>
+        <v>1.022118244427184</v>
       </c>
       <c r="F2">
-        <v>1.037829112804191</v>
+        <v>1.03443903658592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049178051239739</v>
+        <v>1.046944314378782</v>
       </c>
       <c r="J2">
-        <v>1.033905532428581</v>
+        <v>1.027871022797618</v>
       </c>
       <c r="K2">
-        <v>1.043087502462168</v>
+        <v>1.037653171092319</v>
       </c>
       <c r="L2">
-        <v>1.037962377150338</v>
+        <v>1.033277802644623</v>
       </c>
       <c r="M2">
-        <v>1.048785432509161</v>
+        <v>1.045438558045854</v>
       </c>
       <c r="N2">
-        <v>1.035373796875263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013142725767361</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044533950215573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016596598570836</v>
+        <v>1.00939478542525</v>
       </c>
       <c r="D3">
-        <v>1.035437806206753</v>
+        <v>1.028965801936468</v>
       </c>
       <c r="E3">
-        <v>1.030546742020366</v>
+        <v>1.024813027614781</v>
       </c>
       <c r="F3">
-        <v>1.041646858732649</v>
+        <v>1.036990243384611</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050235073851821</v>
+        <v>1.047556444031023</v>
       </c>
       <c r="J3">
-        <v>1.036644826150993</v>
+        <v>1.029632574839547</v>
       </c>
       <c r="K3">
-        <v>1.045636476172842</v>
+        <v>1.039241003529531</v>
       </c>
       <c r="L3">
-        <v>1.040803139009244</v>
+        <v>1.035137967635363</v>
       </c>
       <c r="M3">
-        <v>1.051773211107862</v>
+        <v>1.047170731488764</v>
       </c>
       <c r="N3">
-        <v>1.038116980708952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013740582263297</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045904840458044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +527,93 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019462579907323</v>
+        <v>1.011641788870322</v>
       </c>
       <c r="D4">
-        <v>1.037585096752832</v>
+        <v>1.030504634155298</v>
       </c>
       <c r="E4">
-        <v>1.032888647065007</v>
+        <v>1.026533827870296</v>
       </c>
       <c r="F4">
-        <v>1.044074230752866</v>
+        <v>1.038619221119044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05089579094783</v>
+        <v>1.047936488723643</v>
       </c>
       <c r="J4">
-        <v>1.03838120176137</v>
+        <v>1.030752312901623</v>
       </c>
       <c r="K4">
-        <v>1.047250116183675</v>
+        <v>1.040248324043888</v>
       </c>
       <c r="L4">
-        <v>1.042605700192053</v>
+        <v>1.036322222337153</v>
       </c>
       <c r="M4">
-        <v>1.053668299821689</v>
+        <v>1.048272860774737</v>
       </c>
       <c r="N4">
-        <v>1.039855822171859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014120414145314</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04677709489864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020654403424972</v>
+        <v>1.012577708470786</v>
       </c>
       <c r="D5">
-        <v>1.038478517507036</v>
+        <v>1.031146117568713</v>
       </c>
       <c r="E5">
-        <v>1.033863827366886</v>
+        <v>1.027251902916003</v>
       </c>
       <c r="F5">
-        <v>1.045084739442795</v>
+        <v>1.039298938777652</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051168101028729</v>
+        <v>1.048092458378347</v>
       </c>
       <c r="J5">
-        <v>1.039102781722149</v>
+        <v>1.031218339584816</v>
       </c>
       <c r="K5">
-        <v>1.047920174241503</v>
+        <v>1.040667073031072</v>
       </c>
       <c r="L5">
-        <v>1.043355230319861</v>
+        <v>1.03681553911822</v>
       </c>
       <c r="M5">
-        <v>1.054456116698645</v>
+        <v>1.048731808052066</v>
       </c>
       <c r="N5">
-        <v>1.040578426858949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014278447735996</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047140317680387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02085376469642</v>
+        <v>1.012734349068121</v>
       </c>
       <c r="D6">
-        <v>1.038627989518402</v>
+        <v>1.031253509674663</v>
       </c>
       <c r="E6">
-        <v>1.034027024650926</v>
+        <v>1.027372160998831</v>
       </c>
       <c r="F6">
-        <v>1.045253833571232</v>
+        <v>1.039412770444338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051213506283163</v>
+        <v>1.0481184245966</v>
       </c>
       <c r="J6">
-        <v>1.03922345330199</v>
+        <v>1.0312963141365</v>
       </c>
       <c r="K6">
-        <v>1.048032198883581</v>
+        <v>1.040737108001802</v>
       </c>
       <c r="L6">
-        <v>1.043480602208238</v>
+        <v>1.036898105551439</v>
       </c>
       <c r="M6">
-        <v>1.054587881537716</v>
+        <v>1.0488086125583</v>
       </c>
       <c r="N6">
-        <v>1.040699269806275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014304886588693</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0472011027417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019478555724241</v>
+        <v>1.011654328620852</v>
       </c>
       <c r="D7">
-        <v>1.037597070856711</v>
+        <v>1.030513226917333</v>
       </c>
       <c r="E7">
-        <v>1.032901713829449</v>
+        <v>1.026543443668413</v>
       </c>
       <c r="F7">
-        <v>1.044087771926054</v>
+        <v>1.038628323440119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050899450861993</v>
+        <v>1.047938587681455</v>
       </c>
       <c r="J7">
-        <v>1.038390876191623</v>
+        <v>1.030758558352018</v>
       </c>
       <c r="K7">
-        <v>1.047259101906116</v>
+        <v>1.040253937855178</v>
       </c>
       <c r="L7">
-        <v>1.042615747600674</v>
+        <v>1.036328831784367</v>
       </c>
       <c r="M7">
-        <v>1.053678861209302</v>
+        <v>1.048279010374934</v>
       </c>
       <c r="N7">
-        <v>1.039865510340914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014122532229049</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046781961852957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013618529151193</v>
+        <v>1.00706535485482</v>
       </c>
       <c r="D8">
-        <v>1.033208305166844</v>
+        <v>1.027372472219412</v>
       </c>
       <c r="E8">
-        <v>1.028117851128326</v>
+        <v>1.023033783764004</v>
       </c>
       <c r="F8">
-        <v>1.03912843596702</v>
+        <v>1.035305821188769</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049540158460359</v>
+        <v>1.04715453305812</v>
       </c>
       <c r="J8">
-        <v>1.03483892951626</v>
+        <v>1.028470572663768</v>
       </c>
       <c r="K8">
-        <v>1.043956480041746</v>
+        <v>1.038194004264344</v>
       </c>
       <c r="L8">
-        <v>1.038929955772868</v>
+        <v>1.033910531430089</v>
       </c>
       <c r="M8">
-        <v>1.049803241771814</v>
+        <v>1.046027881690318</v>
       </c>
       <c r="N8">
-        <v>1.036308519493858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0133462483405</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045000357627331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002838094370978</v>
+        <v>0.998680685770315</v>
       </c>
       <c r="D9">
-        <v>1.025154452764311</v>
+        <v>1.021654792945811</v>
       </c>
       <c r="E9">
-        <v>1.019363767979488</v>
+        <v>1.016667644602773</v>
       </c>
       <c r="F9">
-        <v>1.03004490863787</v>
+        <v>1.029278411592673</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046961637884546</v>
+        <v>1.045648170743231</v>
       </c>
       <c r="J9">
-        <v>1.028291028741434</v>
+        <v>1.024280118597458</v>
       </c>
       <c r="K9">
-        <v>1.037852186171755</v>
+        <v>1.034406041390142</v>
       </c>
       <c r="L9">
-        <v>1.032150303748206</v>
+        <v>1.029495967509793</v>
       </c>
       <c r="M9">
-        <v>1.04266863519392</v>
+        <v>1.041913678303013</v>
       </c>
       <c r="N9">
-        <v>1.029751319948877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011923009292105</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041744254396064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9953125901005873</v>
+        <v>0.9929227249175198</v>
       </c>
       <c r="D10">
-        <v>1.019549786987407</v>
+        <v>1.017762737812282</v>
       </c>
       <c r="E10">
-        <v>1.013287630453249</v>
+        <v>1.012350282831712</v>
       </c>
       <c r="F10">
-        <v>1.023734671626747</v>
+        <v>1.025222961415652</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045111635290065</v>
+        <v>1.044583387857785</v>
       </c>
       <c r="J10">
-        <v>1.02371342573906</v>
+        <v>1.021419978705168</v>
       </c>
       <c r="K10">
-        <v>1.033574812988683</v>
+        <v>1.031818519555216</v>
       </c>
       <c r="L10">
-        <v>1.027421046729324</v>
+        <v>1.026500072906471</v>
       </c>
       <c r="M10">
-        <v>1.037688216732228</v>
+        <v>1.039151266975416</v>
       </c>
       <c r="N10">
-        <v>1.025167216225181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010954037622581</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039609359385231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919656759414025</v>
+        <v>0.9907730371882594</v>
       </c>
       <c r="D11">
-        <v>1.017062238781062</v>
+        <v>1.016456183616795</v>
       </c>
       <c r="E11">
-        <v>1.010594358984995</v>
+        <v>1.010914641887493</v>
       </c>
       <c r="F11">
-        <v>1.020936394028619</v>
+        <v>1.024132514668762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044277620711817</v>
+        <v>1.044312545989717</v>
       </c>
       <c r="J11">
-        <v>1.021676554419281</v>
+        <v>1.020534771017226</v>
       </c>
       <c r="K11">
-        <v>1.031669403301382</v>
+        <v>1.031074292863827</v>
       </c>
       <c r="L11">
-        <v>1.025319209131081</v>
+        <v>1.025633618205212</v>
       </c>
       <c r="M11">
-        <v>1.035473994001882</v>
+        <v>1.038613238915518</v>
       </c>
       <c r="N11">
-        <v>1.023127452314495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010682903130716</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039619206073434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907084801542557</v>
+        <v>0.9901217495623198</v>
       </c>
       <c r="D12">
-        <v>1.016128693289187</v>
+        <v>1.016125639857083</v>
       </c>
       <c r="E12">
-        <v>1.009584119681859</v>
+        <v>1.010555213259472</v>
       </c>
       <c r="F12">
-        <v>1.019886585185502</v>
+        <v>1.023985838274658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043962707965278</v>
+        <v>1.04429120927138</v>
       </c>
       <c r="J12">
-        <v>1.020911346658668</v>
+        <v>1.020350139379979</v>
       </c>
       <c r="K12">
-        <v>1.030953281825765</v>
+        <v>1.030950284498759</v>
       </c>
       <c r="L12">
-        <v>1.024529978077662</v>
+        <v>1.025482947956887</v>
       </c>
       <c r="M12">
-        <v>1.03464245590265</v>
+        <v>1.03866749649835</v>
       </c>
       <c r="N12">
-        <v>1.022361157871092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010644717499087</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03998810344201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9909787989091373</v>
+        <v>0.9905815942582604</v>
       </c>
       <c r="D13">
-        <v>1.016329381944051</v>
+        <v>1.016525909286235</v>
       </c>
       <c r="E13">
-        <v>1.00980127276375</v>
+        <v>1.011001744349764</v>
       </c>
       <c r="F13">
-        <v>1.020112251976218</v>
+        <v>1.024564482269397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044030492515071</v>
+        <v>1.04446586308225</v>
       </c>
       <c r="J13">
-        <v>1.021075883233305</v>
+        <v>1.020695875862075</v>
       </c>
       <c r="K13">
-        <v>1.031107277049695</v>
+        <v>1.031300208162377</v>
       </c>
       <c r="L13">
-        <v>1.024699662789855</v>
+        <v>1.025877823958263</v>
       </c>
       <c r="M13">
-        <v>1.034821241340319</v>
+        <v>1.039193220081919</v>
       </c>
       <c r="N13">
-        <v>1.022525928106537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010784314936025</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040680121861826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9918620458185652</v>
+        <v>0.9914064275123771</v>
       </c>
       <c r="D14">
-        <v>1.016985269278385</v>
+        <v>1.017136526117259</v>
       </c>
       <c r="E14">
-        <v>1.010511055897229</v>
+        <v>1.011678708207744</v>
       </c>
       <c r="F14">
-        <v>1.020849831760764</v>
+        <v>1.025297536659883</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044251695460447</v>
+        <v>1.044676225597048</v>
       </c>
       <c r="J14">
-        <v>1.021613480416274</v>
+        <v>1.021177303150806</v>
       </c>
       <c r="K14">
-        <v>1.031610381353535</v>
+        <v>1.03175890519247</v>
       </c>
       <c r="L14">
-        <v>1.025254147132772</v>
+        <v>1.026400376048833</v>
       </c>
       <c r="M14">
-        <v>1.035405446459</v>
+        <v>1.039774008263041</v>
       </c>
       <c r="N14">
-        <v>1.023064288739169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010962219295206</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041312345310387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9924043650876829</v>
+        <v>0.9918506830247354</v>
       </c>
       <c r="D15">
-        <v>1.017388102732178</v>
+        <v>1.017447547619806</v>
       </c>
       <c r="E15">
-        <v>1.010947058031278</v>
+        <v>1.012023229259398</v>
       </c>
       <c r="F15">
-        <v>1.021302884802091</v>
+        <v>1.025642653041426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044387301763526</v>
+        <v>1.044771996747589</v>
       </c>
       <c r="J15">
-        <v>1.021943556759605</v>
+        <v>1.021413289949091</v>
       </c>
       <c r="K15">
-        <v>1.03191924049013</v>
+        <v>1.031977619600461</v>
       </c>
       <c r="L15">
-        <v>1.025594642624694</v>
+        <v>1.026651223695734</v>
       </c>
       <c r="M15">
-        <v>1.035764178887082</v>
+        <v>1.040027328806358</v>
       </c>
       <c r="N15">
-        <v>1.023394833828768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011045343498113</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041550064291976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9955327914573533</v>
+        <v>0.9941956081390173</v>
       </c>
       <c r="D16">
-        <v>1.019713561661066</v>
+        <v>1.019017877202165</v>
       </c>
       <c r="E16">
-        <v>1.013465021580583</v>
+        <v>1.013763752766637</v>
       </c>
       <c r="F16">
-        <v>1.023918953405964</v>
+        <v>1.027266940686016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045166277417481</v>
+        <v>1.045203547270133</v>
       </c>
       <c r="J16">
-        <v>1.023847419417843</v>
+        <v>1.022563896767253</v>
       </c>
       <c r="K16">
-        <v>1.033700115787281</v>
+        <v>1.033016347811321</v>
       </c>
       <c r="L16">
-        <v>1.027559366999437</v>
+        <v>1.02785290573496</v>
       </c>
       <c r="M16">
-        <v>1.037833917733312</v>
+        <v>1.041125451412043</v>
       </c>
       <c r="N16">
-        <v>1.025301400190357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011430630602781</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042379347535962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9974710221394631</v>
+        <v>0.9955634038490527</v>
       </c>
       <c r="D17">
-        <v>1.021155709202285</v>
+        <v>1.019902941672981</v>
       </c>
       <c r="E17">
-        <v>1.015027471791267</v>
+        <v>1.014745049490708</v>
       </c>
       <c r="F17">
-        <v>1.025541955004394</v>
+        <v>1.028125590722736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045645968336909</v>
+        <v>1.0454212971205</v>
       </c>
       <c r="J17">
-        <v>1.025026733338893</v>
+        <v>1.023193148027868</v>
       </c>
       <c r="K17">
-        <v>1.034802698664998</v>
+        <v>1.033570773201051</v>
       </c>
       <c r="L17">
-        <v>1.02877704733352</v>
+        <v>1.028499391284979</v>
       </c>
       <c r="M17">
-        <v>1.039116487335432</v>
+        <v>1.041657815373896</v>
       </c>
       <c r="N17">
-        <v>1.026482388872444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011632439363229</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042671273071227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985930897066716</v>
+        <v>0.9962154983785847</v>
       </c>
       <c r="D18">
-        <v>1.021991064921365</v>
+        <v>1.020270564993937</v>
       </c>
       <c r="E18">
-        <v>1.015932849291231</v>
+        <v>1.015150665428113</v>
       </c>
       <c r="F18">
-        <v>1.02648230127153</v>
+        <v>1.028377382058601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045922596823847</v>
+        <v>1.045471092981382</v>
       </c>
       <c r="J18">
-        <v>1.025709353987845</v>
+        <v>1.023422245999071</v>
       </c>
       <c r="K18">
-        <v>1.035440701697735</v>
+        <v>1.033748340858546</v>
       </c>
       <c r="L18">
-        <v>1.029482113878141</v>
+        <v>1.028712904690502</v>
       </c>
       <c r="M18">
-        <v>1.039859053575876</v>
+        <v>1.041723625685572</v>
       </c>
       <c r="N18">
-        <v>1.027165978921015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01169140920983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042485962320053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9989742706273785</v>
+        <v>0.9962181072632029</v>
       </c>
       <c r="D19">
-        <v>1.022274924629136</v>
+        <v>1.020168525103503</v>
       </c>
       <c r="E19">
-        <v>1.016240560641114</v>
+        <v>1.015031769908839</v>
       </c>
       <c r="F19">
-        <v>1.026801877282123</v>
+        <v>1.028076134613172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046016387832161</v>
+        <v>1.045370835167251</v>
       </c>
       <c r="J19">
-        <v>1.025941230646896</v>
+        <v>1.023289287537626</v>
       </c>
       <c r="K19">
-        <v>1.03565738730377</v>
+        <v>1.033585246668276</v>
       </c>
       <c r="L19">
-        <v>1.029721655365828</v>
+        <v>1.028532803823745</v>
       </c>
       <c r="M19">
-        <v>1.040111322767594</v>
+        <v>1.041365175737941</v>
       </c>
       <c r="N19">
-        <v>1.027398184871518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011623038267107</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041877580746974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9972639495238278</v>
+        <v>0.9944142505728168</v>
       </c>
       <c r="D20">
-        <v>1.021001585978264</v>
+        <v>1.018770367261626</v>
       </c>
       <c r="E20">
-        <v>1.014860456912999</v>
+        <v>1.013467081308352</v>
       </c>
       <c r="F20">
-        <v>1.025368479852431</v>
+        <v>1.026273651891804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045594830837676</v>
+        <v>1.044863346076106</v>
       </c>
       <c r="J20">
-        <v>1.024900750281335</v>
+        <v>1.022162204650677</v>
       </c>
       <c r="K20">
-        <v>1.034684933563514</v>
+        <v>1.032491001399283</v>
       </c>
       <c r="L20">
-        <v>1.028646940931258</v>
+        <v>1.027277190792359</v>
       </c>
       <c r="M20">
-        <v>1.038979455157621</v>
+        <v>1.039869724953913</v>
       </c>
       <c r="N20">
-        <v>1.026356226904494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011205681100264</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040167407626468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9916023443094221</v>
+        <v>0.9900249972014663</v>
       </c>
       <c r="D21">
-        <v>1.016792394376738</v>
+        <v>1.015783137249106</v>
       </c>
       <c r="E21">
-        <v>1.010302318086143</v>
+        <v>1.010155898556338</v>
       </c>
       <c r="F21">
-        <v>1.020632924298315</v>
+        <v>1.023113238371758</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044186699554265</v>
+        <v>1.044009852622018</v>
       </c>
       <c r="J21">
-        <v>1.021455412822548</v>
+        <v>1.019945771448725</v>
       </c>
       <c r="K21">
-        <v>1.031462463693672</v>
+        <v>1.030471538258051</v>
       </c>
       <c r="L21">
-        <v>1.025091103683299</v>
+        <v>1.02494738538832</v>
       </c>
       <c r="M21">
-        <v>1.035233666640795</v>
+        <v>1.03766956669469</v>
       </c>
       <c r="N21">
-        <v>1.022905996671329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010449412722029</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038385322579815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9879612515564503</v>
+        <v>0.9872390674840692</v>
       </c>
       <c r="D22">
-        <v>1.014090361597546</v>
+        <v>1.01390039813884</v>
       </c>
       <c r="E22">
-        <v>1.007379250661774</v>
+        <v>1.008072595907691</v>
       </c>
       <c r="F22">
-        <v>1.01759502548361</v>
+        <v>1.021141026899297</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043271620086303</v>
+        <v>1.04346733182291</v>
       </c>
       <c r="J22">
-        <v>1.019239084704362</v>
+        <v>1.018549751258857</v>
       </c>
       <c r="K22">
-        <v>1.029387759885411</v>
+        <v>1.029201424950201</v>
       </c>
       <c r="L22">
-        <v>1.022805926983541</v>
+        <v>1.023485811612247</v>
       </c>
       <c r="M22">
-        <v>1.03282579829476</v>
+        <v>1.036304996132957</v>
       </c>
       <c r="N22">
-        <v>1.020686521112999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009974554681353</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037305352474956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898994394108579</v>
+        <v>0.9887208544318655</v>
       </c>
       <c r="D23">
-        <v>1.015528180383237</v>
+        <v>1.014901349254896</v>
       </c>
       <c r="E23">
-        <v>1.008934414352313</v>
+        <v>1.009179915916487</v>
       </c>
       <c r="F23">
-        <v>1.019211381176988</v>
+        <v>1.022189281401535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043759599699749</v>
+        <v>1.043756736560958</v>
       </c>
       <c r="J23">
-        <v>1.020418892118073</v>
+        <v>1.019292304701656</v>
       </c>
       <c r="K23">
-        <v>1.030492334729288</v>
+        <v>1.029877163707612</v>
       </c>
       <c r="L23">
-        <v>1.024022171846043</v>
+        <v>1.024263033538709</v>
       </c>
       <c r="M23">
-        <v>1.034107399344064</v>
+        <v>1.037030678212165</v>
       </c>
       <c r="N23">
-        <v>1.021868003988563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010227147350557</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037879683514118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9973575428456982</v>
+        <v>0.9944477249729915</v>
       </c>
       <c r="D24">
-        <v>1.021071245596873</v>
+        <v>1.018779242350771</v>
       </c>
       <c r="E24">
-        <v>1.014935942171778</v>
+        <v>1.013475689326922</v>
       </c>
       <c r="F24">
-        <v>1.025446885310546</v>
+        <v>1.026256254083833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045617947447195</v>
+        <v>1.044856447283261</v>
       </c>
       <c r="J24">
-        <v>1.024957692807262</v>
+        <v>1.022161193196109</v>
       </c>
       <c r="K24">
-        <v>1.034738162324085</v>
+        <v>1.032484408525854</v>
       </c>
       <c r="L24">
-        <v>1.028705746411099</v>
+        <v>1.027270218535685</v>
       </c>
       <c r="M24">
-        <v>1.039041391174994</v>
+        <v>1.039837453027821</v>
       </c>
       <c r="N24">
-        <v>1.026413250295339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011202770068267</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040101062259469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005682213511506</v>
+        <v>1.000885351671237</v>
       </c>
       <c r="D25">
-        <v>1.027276517106953</v>
+        <v>1.023155462809281</v>
       </c>
       <c r="E25">
-        <v>1.02166752866785</v>
+        <v>1.0183358835641</v>
       </c>
       <c r="F25">
-        <v>1.032436322710684</v>
+        <v>1.030857926583886</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04765073592097</v>
+        <v>1.04605266165965</v>
       </c>
       <c r="J25">
-        <v>1.030019850116105</v>
+        <v>1.025382956892979</v>
       </c>
       <c r="K25">
-        <v>1.039465658350852</v>
+        <v>1.035404648031777</v>
       </c>
       <c r="L25">
-        <v>1.033938544283962</v>
+        <v>1.030656073790772</v>
       </c>
       <c r="M25">
-        <v>1.044551140878034</v>
+        <v>1.042995380313729</v>
       </c>
       <c r="N25">
-        <v>1.031482596448198</v>
+        <v>1.012297734285759</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042600347031506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005864308520041</v>
+        <v>1.005598265538803</v>
       </c>
       <c r="D2">
-        <v>1.026551754611015</v>
+        <v>1.025829450572064</v>
       </c>
       <c r="E2">
-        <v>1.022118244427184</v>
+        <v>1.021842212891343</v>
       </c>
       <c r="F2">
-        <v>1.03443903658592</v>
+        <v>1.034037064192433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046944314378782</v>
+        <v>1.046651090815783</v>
       </c>
       <c r="J2">
-        <v>1.027871022797618</v>
+        <v>1.027612813101773</v>
       </c>
       <c r="K2">
-        <v>1.037653171092319</v>
+        <v>1.036940296528544</v>
       </c>
       <c r="L2">
-        <v>1.033277802644623</v>
+        <v>1.033005411951486</v>
       </c>
       <c r="M2">
-        <v>1.045438558045854</v>
+        <v>1.045041731704391</v>
       </c>
       <c r="N2">
-        <v>1.013142725767361</v>
+        <v>1.014482475251327</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044533950215573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044219890450095</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021891558321246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00939478542525</v>
+        <v>1.008993871183935</v>
       </c>
       <c r="D3">
-        <v>1.028965801936468</v>
+        <v>1.028067616781336</v>
       </c>
       <c r="E3">
-        <v>1.024813027614781</v>
+        <v>1.024417173352411</v>
       </c>
       <c r="F3">
-        <v>1.036990243384611</v>
+        <v>1.036465597640283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047556444031023</v>
+        <v>1.047186842656523</v>
       </c>
       <c r="J3">
-        <v>1.029632574839547</v>
+        <v>1.029242321229326</v>
       </c>
       <c r="K3">
-        <v>1.039241003529531</v>
+        <v>1.038353533846679</v>
       </c>
       <c r="L3">
-        <v>1.035137967635363</v>
+        <v>1.034746880710856</v>
       </c>
       <c r="M3">
-        <v>1.047170731488764</v>
+        <v>1.046652222761431</v>
       </c>
       <c r="N3">
-        <v>1.013740582263297</v>
+        <v>1.014922290242566</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045904840458044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045494478497782</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022170094195638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011641788870322</v>
+        <v>1.01115590896073</v>
       </c>
       <c r="D4">
-        <v>1.030504634155298</v>
+        <v>1.029495071964812</v>
       </c>
       <c r="E4">
-        <v>1.026533827870296</v>
+        <v>1.026062345726148</v>
       </c>
       <c r="F4">
-        <v>1.038619221119044</v>
+        <v>1.038017044778146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047936488723643</v>
+        <v>1.047518463996664</v>
       </c>
       <c r="J4">
-        <v>1.030752312901623</v>
+        <v>1.030278487262349</v>
       </c>
       <c r="K4">
-        <v>1.040248324043888</v>
+        <v>1.039250087557495</v>
       </c>
       <c r="L4">
-        <v>1.036322222337153</v>
+        <v>1.035856076611679</v>
       </c>
       <c r="M4">
-        <v>1.048272860774737</v>
+        <v>1.047677307551764</v>
       </c>
       <c r="N4">
-        <v>1.014120414145314</v>
+        <v>1.015201842851774</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04677709489864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046305758360796</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022344342024567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012577708470786</v>
+        <v>1.012056637016646</v>
       </c>
       <c r="D5">
-        <v>1.031146117568713</v>
+        <v>1.030090294421057</v>
       </c>
       <c r="E5">
-        <v>1.027251902916003</v>
+        <v>1.026749066130868</v>
       </c>
       <c r="F5">
-        <v>1.039298938777652</v>
+        <v>1.038664594512672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048092458378347</v>
+        <v>1.047654307824236</v>
       </c>
       <c r="J5">
-        <v>1.031218339584816</v>
+        <v>1.03070981296497</v>
       </c>
       <c r="K5">
-        <v>1.040667073031072</v>
+        <v>1.039622782593283</v>
       </c>
       <c r="L5">
-        <v>1.03681553911822</v>
+        <v>1.036318242445485</v>
       </c>
       <c r="M5">
-        <v>1.048731808052066</v>
+        <v>1.048104256701552</v>
       </c>
       <c r="N5">
-        <v>1.014278447735996</v>
+        <v>1.015318183405591</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047140317680387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046643657216103</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022416181151452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012734349068121</v>
+        <v>1.012207399091964</v>
       </c>
       <c r="D6">
-        <v>1.031253509674663</v>
+        <v>1.030189951502438</v>
       </c>
       <c r="E6">
-        <v>1.027372160998831</v>
+        <v>1.026864084917485</v>
       </c>
       <c r="F6">
-        <v>1.039412770444338</v>
+        <v>1.038773049559599</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0481184245966</v>
+        <v>1.0476769081783</v>
       </c>
       <c r="J6">
-        <v>1.0312963141365</v>
+        <v>1.030781986024973</v>
       </c>
       <c r="K6">
-        <v>1.040737108001802</v>
+        <v>1.039685114493374</v>
       </c>
       <c r="L6">
-        <v>1.036898105551439</v>
+        <v>1.036395601775659</v>
       </c>
       <c r="M6">
-        <v>1.0488086125583</v>
+        <v>1.048175711143732</v>
       </c>
       <c r="N6">
-        <v>1.014304886588693</v>
+        <v>1.015337648743337</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0472011027417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046700208137374</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022428160805686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011654328620852</v>
+        <v>1.011175329183043</v>
       </c>
       <c r="D7">
-        <v>1.030513226917333</v>
+        <v>1.029508480343941</v>
       </c>
       <c r="E7">
-        <v>1.026543443668413</v>
+        <v>1.026077678734045</v>
       </c>
       <c r="F7">
-        <v>1.038628323440119</v>
+        <v>1.038030762515046</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I7">
-        <v>1.047938587681455</v>
+        <v>1.047522843134456</v>
       </c>
       <c r="J7">
-        <v>1.030758558352018</v>
+        <v>1.030291437643211</v>
       </c>
       <c r="K7">
-        <v>1.040253937855178</v>
+        <v>1.03926045890747</v>
       </c>
       <c r="L7">
-        <v>1.036328831784367</v>
+        <v>1.03586833664165</v>
       </c>
       <c r="M7">
-        <v>1.048279010374934</v>
+        <v>1.047688019440502</v>
       </c>
       <c r="N7">
-        <v>1.014122532229049</v>
+        <v>1.015231141653653</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046781961852957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046314236034903</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022346886176714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00706535485482</v>
+        <v>1.006775896120366</v>
       </c>
       <c r="D8">
-        <v>1.027372472219412</v>
+        <v>1.026607049479118</v>
       </c>
       <c r="E8">
-        <v>1.023033783764004</v>
+        <v>1.022735798792068</v>
       </c>
       <c r="F8">
-        <v>1.035305821188769</v>
+        <v>1.034877614765419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04715453305812</v>
+        <v>1.046843197901319</v>
       </c>
       <c r="J8">
-        <v>1.028470572663768</v>
+        <v>1.028189353383254</v>
       </c>
       <c r="K8">
-        <v>1.038194004264344</v>
+        <v>1.037438280221499</v>
       </c>
       <c r="L8">
-        <v>1.033910531430089</v>
+        <v>1.033616360202796</v>
       </c>
       <c r="M8">
-        <v>1.046027881690318</v>
+        <v>1.045604995785621</v>
       </c>
       <c r="N8">
-        <v>1.0133462483405</v>
+        <v>1.014716554945438</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045000357627331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044665673783579</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021991846547927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998680685770315</v>
+        <v>0.9987204419649093</v>
       </c>
       <c r="D9">
-        <v>1.021654792945811</v>
+        <v>1.021313209242146</v>
       </c>
       <c r="E9">
-        <v>1.016667644602773</v>
+        <v>1.01666101845278</v>
       </c>
       <c r="F9">
-        <v>1.029278411592673</v>
+        <v>1.029147373240775</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045648170743231</v>
+        <v>1.045520647685568</v>
       </c>
       <c r="J9">
-        <v>1.024280118597458</v>
+        <v>1.024318465778682</v>
       </c>
       <c r="K9">
-        <v>1.034406041390142</v>
+        <v>1.034069706084646</v>
       </c>
       <c r="L9">
-        <v>1.029495967509793</v>
+        <v>1.029489444407215</v>
       </c>
       <c r="M9">
-        <v>1.041913678303013</v>
+        <v>1.041784615017021</v>
       </c>
       <c r="N9">
-        <v>1.011923009292105</v>
+        <v>1.013680677510251</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041744254396064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041642109627362</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021314499513732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9929227249175198</v>
+        <v>0.993224668246612</v>
       </c>
       <c r="D10">
-        <v>1.017762737812282</v>
+        <v>1.017737505884135</v>
       </c>
       <c r="E10">
-        <v>1.012350282831712</v>
+        <v>1.012572922579537</v>
       </c>
       <c r="F10">
-        <v>1.025222961415652</v>
+        <v>1.025320140905351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044583387857785</v>
+        <v>1.04459340846208</v>
       </c>
       <c r="J10">
-        <v>1.021419978705168</v>
+        <v>1.021709703923042</v>
       </c>
       <c r="K10">
-        <v>1.031818519555216</v>
+        <v>1.031793722877437</v>
       </c>
       <c r="L10">
-        <v>1.026500072906471</v>
+        <v>1.026718819977655</v>
       </c>
       <c r="M10">
-        <v>1.039151266975416</v>
+        <v>1.039246801710281</v>
       </c>
       <c r="N10">
-        <v>1.010954037622581</v>
+        <v>1.013094940391673</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039609359385231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039684964111908</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020850802130819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9907730371882594</v>
+        <v>0.9912050817152037</v>
       </c>
       <c r="D11">
-        <v>1.016456183616795</v>
+        <v>1.01656445158071</v>
       </c>
       <c r="E11">
-        <v>1.010914641887493</v>
+        <v>1.011247521401991</v>
       </c>
       <c r="F11">
-        <v>1.024132514668762</v>
+        <v>1.024333504602871</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044312545989717</v>
+        <v>1.044379880439392</v>
       </c>
       <c r="J11">
-        <v>1.020534771017226</v>
+        <v>1.02094837256167</v>
       </c>
       <c r="K11">
-        <v>1.031074292863827</v>
+        <v>1.031180604375964</v>
       </c>
       <c r="L11">
-        <v>1.025633618205212</v>
+        <v>1.025960398010539</v>
       </c>
       <c r="M11">
-        <v>1.038613238915518</v>
+        <v>1.038810667573355</v>
       </c>
       <c r="N11">
-        <v>1.010682903130716</v>
+        <v>1.013138885546812</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039619206073434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039775369757999</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020759774918395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901217495623198</v>
+        <v>0.990591190007917</v>
       </c>
       <c r="D12">
-        <v>1.016125639857083</v>
+        <v>1.016268736475021</v>
       </c>
       <c r="E12">
-        <v>1.010555213259472</v>
+        <v>1.010918588887988</v>
       </c>
       <c r="F12">
-        <v>1.023985838274658</v>
+        <v>1.024215067163763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04429120927138</v>
+        <v>1.044372419793161</v>
       </c>
       <c r="J12">
-        <v>1.020350139379979</v>
+        <v>1.020799155286459</v>
       </c>
       <c r="K12">
-        <v>1.030950284498759</v>
+        <v>1.031090752268787</v>
       </c>
       <c r="L12">
-        <v>1.025482947956887</v>
+        <v>1.025839553519006</v>
       </c>
       <c r="M12">
-        <v>1.03866749649835</v>
+        <v>1.038892598241989</v>
       </c>
       <c r="N12">
-        <v>1.010644717499087</v>
+        <v>1.013217739027453</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03998810344201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040166096095786</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020767144984577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9905815942582604</v>
+        <v>0.9910087402395031</v>
       </c>
       <c r="D13">
-        <v>1.016525909286235</v>
+        <v>1.016621804790446</v>
       </c>
       <c r="E13">
-        <v>1.011001744349764</v>
+        <v>1.011327346946655</v>
       </c>
       <c r="F13">
-        <v>1.024564482269397</v>
+        <v>1.024758098791904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04446586308225</v>
+        <v>1.044524747281552</v>
       </c>
       <c r="J13">
-        <v>1.020695875862075</v>
+        <v>1.021104529028603</v>
       </c>
       <c r="K13">
-        <v>1.031300208162377</v>
+        <v>1.031394349543806</v>
       </c>
       <c r="L13">
-        <v>1.025877823958263</v>
+        <v>1.026197387232278</v>
       </c>
       <c r="M13">
-        <v>1.039193220081919</v>
+        <v>1.039383367213538</v>
       </c>
       <c r="N13">
-        <v>1.010784314936025</v>
+        <v>1.01329329807956</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040680121861826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040830437469466</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020850654009197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9914064275123771</v>
+        <v>0.9917685118514115</v>
       </c>
       <c r="D14">
-        <v>1.017136526117259</v>
+        <v>1.017162827009258</v>
       </c>
       <c r="E14">
-        <v>1.011678708207744</v>
+        <v>1.011947590383047</v>
       </c>
       <c r="F14">
-        <v>1.025297536659883</v>
+        <v>1.02543786432187</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044676225597048</v>
+        <v>1.044703491316263</v>
       </c>
       <c r="J14">
-        <v>1.021177303150806</v>
+        <v>1.021523935426517</v>
       </c>
       <c r="K14">
-        <v>1.03175890519247</v>
+        <v>1.031784730971917</v>
       </c>
       <c r="L14">
-        <v>1.026400376048833</v>
+        <v>1.026664334052008</v>
       </c>
       <c r="M14">
-        <v>1.039774008263041</v>
+        <v>1.039911853405042</v>
       </c>
       <c r="N14">
-        <v>1.010962219295206</v>
+        <v>1.013345642790566</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041312345310387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041421300325119</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020943495458249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9918506830247354</v>
+        <v>0.9921802224108734</v>
       </c>
       <c r="D15">
-        <v>1.017447547619806</v>
+        <v>1.017439435614169</v>
       </c>
       <c r="E15">
-        <v>1.012023229259398</v>
+        <v>1.0122640048867</v>
       </c>
       <c r="F15">
-        <v>1.025642653041426</v>
+        <v>1.025756543921263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044771996747589</v>
+        <v>1.044783931034086</v>
       </c>
       <c r="J15">
-        <v>1.021413289949091</v>
+        <v>1.02172888860694</v>
       </c>
       <c r="K15">
-        <v>1.031977619600461</v>
+        <v>1.031969653024085</v>
       </c>
       <c r="L15">
-        <v>1.026651223695734</v>
+        <v>1.026887623765892</v>
       </c>
       <c r="M15">
-        <v>1.040027328806358</v>
+        <v>1.04013922026365</v>
       </c>
       <c r="N15">
-        <v>1.011045343498113</v>
+        <v>1.013361419867664</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041550064291976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041638502771778</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020983951212129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9941956081390173</v>
+        <v>0.9943724933206157</v>
       </c>
       <c r="D16">
-        <v>1.019017877202165</v>
+        <v>1.018847393588335</v>
       </c>
       <c r="E16">
-        <v>1.013763752766637</v>
+        <v>1.013873531307225</v>
       </c>
       <c r="F16">
-        <v>1.027266940686016</v>
+        <v>1.027256697910385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045203547270133</v>
+        <v>1.045144547745629</v>
       </c>
       <c r="J16">
-        <v>1.022563896767253</v>
+        <v>1.022733671869926</v>
       </c>
       <c r="K16">
-        <v>1.033016347811321</v>
+        <v>1.032848787645393</v>
       </c>
       <c r="L16">
-        <v>1.02785290573496</v>
+        <v>1.027960777134949</v>
       </c>
       <c r="M16">
-        <v>1.041125451412043</v>
+        <v>1.041115380626081</v>
       </c>
       <c r="N16">
-        <v>1.011430630602781</v>
+        <v>1.013422330567056</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042379347535962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.042371387407907</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021159411005213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9955634038490527</v>
+        <v>0.995665779052525</v>
       </c>
       <c r="D17">
-        <v>1.019902941672981</v>
+        <v>1.019650726390363</v>
       </c>
       <c r="E17">
-        <v>1.014745049490708</v>
+        <v>1.014791015413208</v>
       </c>
       <c r="F17">
-        <v>1.028125590722736</v>
+        <v>1.02805386583818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0454212971205</v>
+        <v>1.045327227967929</v>
       </c>
       <c r="J17">
-        <v>1.023193148027868</v>
+        <v>1.023291539959698</v>
       </c>
       <c r="K17">
-        <v>1.033570773201051</v>
+        <v>1.033322761956639</v>
       </c>
       <c r="L17">
-        <v>1.028499391284979</v>
+        <v>1.028544581238205</v>
       </c>
       <c r="M17">
-        <v>1.041657815373896</v>
+        <v>1.0415872613142</v>
       </c>
       <c r="N17">
-        <v>1.011632439363229</v>
+        <v>1.013470347358009</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042671273071227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04261550034581</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021245822570239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9962154983785847</v>
+        <v>0.9962934813558612</v>
       </c>
       <c r="D18">
-        <v>1.020270564993937</v>
+        <v>1.01999117205894</v>
       </c>
       <c r="E18">
-        <v>1.015150665428113</v>
+        <v>1.015176284519441</v>
       </c>
       <c r="F18">
-        <v>1.028377382058601</v>
+        <v>1.02828543877368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045471092981382</v>
+        <v>1.045366217057535</v>
       </c>
       <c r="J18">
-        <v>1.023422245999071</v>
+        <v>1.023497251536552</v>
       </c>
       <c r="K18">
-        <v>1.033748340858546</v>
+        <v>1.033473528965783</v>
       </c>
       <c r="L18">
-        <v>1.028712904690502</v>
+        <v>1.028738098410786</v>
       </c>
       <c r="M18">
-        <v>1.041723625685572</v>
+        <v>1.041633159255054</v>
       </c>
       <c r="N18">
-        <v>1.01169140920983</v>
+        <v>1.01347132874865</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042485962320053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.042414434068123</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021258464192214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9962181072632029</v>
+        <v>0.9963108708289518</v>
       </c>
       <c r="D19">
-        <v>1.020168525103503</v>
+        <v>1.019906694917714</v>
       </c>
       <c r="E19">
-        <v>1.015031769908839</v>
+        <v>1.01507124694654</v>
       </c>
       <c r="F19">
-        <v>1.028076134613172</v>
+        <v>1.027997075128184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045370835167251</v>
+        <v>1.045274955084094</v>
       </c>
       <c r="J19">
-        <v>1.023289287537626</v>
+        <v>1.023378530165793</v>
       </c>
       <c r="K19">
-        <v>1.033585246668276</v>
+        <v>1.033327687646124</v>
       </c>
       <c r="L19">
-        <v>1.028532803823745</v>
+        <v>1.028571628716291</v>
       </c>
       <c r="M19">
-        <v>1.041365175737941</v>
+        <v>1.041287380325478</v>
       </c>
       <c r="N19">
-        <v>1.011623038267107</v>
+        <v>1.013410894105592</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041877580746974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.041816050931148</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021204026681325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9944142505728168</v>
+        <v>0.9946272239549483</v>
       </c>
       <c r="D20">
-        <v>1.018770367261626</v>
+        <v>1.018647344116949</v>
       </c>
       <c r="E20">
-        <v>1.013467081308352</v>
+        <v>1.013612725662911</v>
       </c>
       <c r="F20">
-        <v>1.026273651891804</v>
+        <v>1.026297069869646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044863346076106</v>
+        <v>1.044830299629697</v>
       </c>
       <c r="J20">
-        <v>1.022162204650677</v>
+        <v>1.022366839803341</v>
       </c>
       <c r="K20">
-        <v>1.032491001399283</v>
+        <v>1.032370040255329</v>
       </c>
       <c r="L20">
-        <v>1.027277190792359</v>
+        <v>1.027420361740834</v>
       </c>
       <c r="M20">
-        <v>1.039869724953913</v>
+        <v>1.039892757840016</v>
       </c>
       <c r="N20">
-        <v>1.011205681100264</v>
+        <v>1.013173858774085</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040167407626468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.040185635719237</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020967861888523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9900249972014663</v>
+        <v>0.990544257994436</v>
       </c>
       <c r="D21">
-        <v>1.015783137249106</v>
+        <v>1.01598336452176</v>
       </c>
       <c r="E21">
-        <v>1.010155898556338</v>
+        <v>1.01056592391005</v>
       </c>
       <c r="F21">
-        <v>1.023113238371758</v>
+        <v>1.023385711837145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044009852622018</v>
+        <v>1.044120547963105</v>
       </c>
       <c r="J21">
-        <v>1.019945771448725</v>
+        <v>1.020442709624741</v>
       </c>
       <c r="K21">
-        <v>1.030471538258051</v>
+        <v>1.030668124924718</v>
       </c>
       <c r="L21">
-        <v>1.02494738538832</v>
+        <v>1.025349848921079</v>
       </c>
       <c r="M21">
-        <v>1.03766956669469</v>
+        <v>1.037937178122368</v>
       </c>
       <c r="N21">
-        <v>1.010449412722029</v>
+        <v>1.013068663624956</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038385322579815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.038597119674416</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020617930125765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9872390674840692</v>
+        <v>0.9879518806778625</v>
       </c>
       <c r="D22">
-        <v>1.01390039813884</v>
+        <v>1.014305256859623</v>
       </c>
       <c r="E22">
-        <v>1.008072595907691</v>
+        <v>1.008649699250014</v>
       </c>
       <c r="F22">
-        <v>1.021141026899297</v>
+        <v>1.021571252056468</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04346733182291</v>
+        <v>1.043669058625732</v>
       </c>
       <c r="J22">
-        <v>1.018549751258857</v>
+        <v>1.019230139646135</v>
       </c>
       <c r="K22">
-        <v>1.029201424950201</v>
+        <v>1.029598552541118</v>
       </c>
       <c r="L22">
-        <v>1.023485811612247</v>
+        <v>1.024051729554133</v>
       </c>
       <c r="M22">
-        <v>1.036304996132957</v>
+        <v>1.036727157409666</v>
       </c>
       <c r="N22">
-        <v>1.009974554681353</v>
+        <v>1.012998377003647</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037305352474956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.037639466231549</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020397724397898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887208544318655</v>
+        <v>0.9893186597729977</v>
       </c>
       <c r="D23">
-        <v>1.014901349254896</v>
+        <v>1.015188060298414</v>
       </c>
       <c r="E23">
-        <v>1.009179915916487</v>
+        <v>1.009657940663847</v>
       </c>
       <c r="F23">
-        <v>1.022189281401535</v>
+        <v>1.022527028947148</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043756736560958</v>
+        <v>1.043905593820608</v>
       </c>
       <c r="J23">
-        <v>1.019292304701656</v>
+        <v>1.019863713539993</v>
       </c>
       <c r="K23">
-        <v>1.029877163707612</v>
+        <v>1.030158539115539</v>
       </c>
       <c r="L23">
-        <v>1.024263033538709</v>
+        <v>1.024732032288256</v>
       </c>
       <c r="M23">
-        <v>1.037030678212165</v>
+        <v>1.037362256860875</v>
       </c>
       <c r="N23">
-        <v>1.010227147350557</v>
+        <v>1.012993639087002</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037879683514118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.03814210669321</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020512334170508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9944477249729915</v>
+        <v>0.9946605158869338</v>
       </c>
       <c r="D24">
-        <v>1.018779242350771</v>
+        <v>1.018656241463476</v>
       </c>
       <c r="E24">
-        <v>1.013475689326922</v>
+        <v>1.013621319811681</v>
       </c>
       <c r="F24">
-        <v>1.026256254083833</v>
+        <v>1.026279635770956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044856447283261</v>
+        <v>1.044823562206034</v>
       </c>
       <c r="J24">
-        <v>1.022161193196109</v>
+        <v>1.022365665533257</v>
       </c>
       <c r="K24">
-        <v>1.032484408525854</v>
+        <v>1.032363466576105</v>
       </c>
       <c r="L24">
-        <v>1.027270218535685</v>
+        <v>1.027413379080386</v>
       </c>
       <c r="M24">
-        <v>1.039837453027821</v>
+        <v>1.039860450695215</v>
       </c>
       <c r="N24">
-        <v>1.011202770068267</v>
+        <v>1.013167711615031</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040101062259469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.040119263381114</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02096335684258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000885351671237</v>
+        <v>1.000828644849183</v>
       </c>
       <c r="D25">
-        <v>1.023155462809281</v>
+        <v>1.022695154586136</v>
       </c>
       <c r="E25">
-        <v>1.0183358835641</v>
+        <v>1.018244487495456</v>
       </c>
       <c r="F25">
-        <v>1.030857926583886</v>
+        <v>1.030641975083549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04605266165965</v>
+        <v>1.045873462556203</v>
       </c>
       <c r="J25">
-        <v>1.025382956892979</v>
+        <v>1.025328153934439</v>
       </c>
       <c r="K25">
-        <v>1.035404648031777</v>
+        <v>1.034951084658777</v>
       </c>
       <c r="L25">
-        <v>1.030656073790772</v>
+        <v>1.030566032478766</v>
       </c>
       <c r="M25">
-        <v>1.042995380313729</v>
+        <v>1.042782532572792</v>
       </c>
       <c r="N25">
-        <v>1.012297734285759</v>
+        <v>1.013920593207246</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042600347031506</v>
+        <v>1.042431892785033</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021493301542201</v>
       </c>
     </row>
   </sheetData>
